--- a/data/excel_files/【坦克竞技】数据表.xlsx
+++ b/data/excel_files/【坦克竞技】数据表.xlsx
@@ -53,7 +53,7 @@
     <t>副本</t>
   </si>
   <si>
-    <t>Copy</t>
+    <t>Dungeon</t>
   </si>
   <si>
     <t>战斗玩法</t>
@@ -119,7 +119,7 @@
     <t>玩法说明</t>
   </si>
   <si>
-    <t>Copy</t>
+    <t>Dungeon</t>
   </si>
   <si>
     <t>Playing</t>

--- a/data/excel_files/【坦克竞技】数据表.xlsx
+++ b/data/excel_files/【坦克竞技】数据表.xlsx
@@ -104,6 +104,9 @@
     <t>Match</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>副本</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>玩法说明</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Dungeon</t>
   </si>
   <si>
@@ -131,165 +137,843 @@
     <t>BirthPoint2</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>list_int</t>
+  </si>
+  <si>
+    <t>list_int</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>18=1|17=1|19=1</t>
+  </si>
+  <si>
+    <t>18=64|17=64|19=64</t>
+  </si>
+  <si>
+    <t>抢夺星星</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>18=1|17=1|19=1</t>
+  </si>
+  <si>
+    <t>18=64|17=64|19=64</t>
+  </si>
+  <si>
+    <t>抢夺矿石</t>
+  </si>
+  <si>
+    <t>y轴格子</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>X29</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>y轴格子</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>X29</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>元素ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>美术资源</t>
+  </si>
+  <si>
+    <t>是否阻挡</t>
+  </si>
+  <si>
+    <t>是否可被普攻摧毁</t>
+  </si>
+  <si>
+    <t>是否可被大招摧毁</t>
+  </si>
+  <si>
+    <t>恢复时间</t>
+  </si>
+  <si>
+    <t>能否隐身</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ArtResource</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Destroy1</t>
+  </si>
+  <si>
+    <t>Destroy2</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Invisible</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>空气墙</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>土墙</t>
+  </si>
+  <si>
+    <t>金刚石</t>
+  </si>
+  <si>
+    <t>水晶井</t>
+  </si>
+  <si>
+    <t>罐子</t>
+  </si>
+  <si>
+    <t>箱子</t>
+  </si>
+  <si>
+    <t>木桶</t>
+  </si>
+  <si>
+    <t>战斗玩法</t>
+  </si>
+  <si>
+    <t>每队人数或混战总人数</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Para1</t>
+  </si>
+  <si>
+    <t>Para2</t>
+  </si>
+  <si>
+    <t>Para3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>击杀模式</t>
+  </si>
+  <si>
+    <t>击杀对方可获得对方头顶上所有星星（队伍累计的星星数量不会减少），【参数1】时间后，得到星星总数多的队伍胜利</t>
+  </si>
+  <si>
+    <t>抢夺水晶</t>
+  </si>
+  <si>
+    <t>有限获得【参数1】数量水晶，并坚持【参数2】时间的队伍获胜</t>
+  </si>
+  <si>
+    <t>大逃杀混战</t>
+  </si>
+  <si>
+    <t>【参数1】时间后毒圈逐步缩小，半径缩小速度【参数2】米每秒，按死亡时间排名结算。</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>英雄名</t>
+  </si>
+  <si>
+    <t>模型ID</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>升级生命值增量</t>
+  </si>
+  <si>
+    <t>普攻ID</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>射击点数</t>
+  </si>
+  <si>
+    <t>恢复时间</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Modle</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Hpincre</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>杯数</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RankLevel</t>
+  </si>
+  <si>
+    <t>Cups</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Reward1</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>list_int</t>
   </si>
   <si>
-    <t>list_int</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>18=1|17=1|19=1</t>
-  </si>
-  <si>
-    <t>18=64|17=64|19=64</t>
-  </si>
-  <si>
-    <t>抢夺星星</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>18=1|17=1|19=1</t>
-  </si>
-  <si>
-    <t>18=64|17=64|19=64</t>
-  </si>
-  <si>
-    <t>抢夺矿石</t>
-  </si>
-  <si>
-    <t>y轴格子</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
-  </si>
-  <si>
-    <t>X29</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>X36</t>
+    <t>英雄总杯数达到多少，到2级</t>
+  </si>
+  <si>
+    <t>掉杯不减等级</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>转化碎片数量</t>
+  </si>
+  <si>
+    <t>兑换所需碎片数</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>HeroShard</t>
+  </si>
+  <si>
+    <t>NeedShardNum</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -299,15 +983,111 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>魔法药水</t>
+  </si>
+  <si>
+    <t>英雄碎片</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>英雄1</t>
+  </si>
+  <si>
+    <t>英雄2</t>
+  </si>
+  <si>
+    <t>英雄3</t>
+  </si>
+  <si>
+    <t>英雄4</t>
+  </si>
+  <si>
+    <t>英雄5</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能标签</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>作用范围</t>
+  </si>
+  <si>
+    <t>弹道速度</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>技能效果描述</t>
+  </si>
+  <si>
+    <t>技能数值描述</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>SkillRange</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Para1</t>
+  </si>
+  <si>
+    <t>Para2</t>
+  </si>
+  <si>
+    <t>Para3</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -323,934 +1103,175 @@
     <t>int</t>
   </si>
   <si>
+    <t>1号英雄-普攻</t>
+  </si>
+  <si>
+    <t>A|a=40</t>
+  </si>
+  <si>
+    <t>向指定方向扇形区域发射【参数1】颗散弹，每个散弹会对命中的敌人造成【参数2】点伤害</t>
+  </si>
+  <si>
+    <t>1号英雄-大招</t>
+  </si>
+  <si>
+    <t>A|a=60</t>
+  </si>
+  <si>
+    <t>向指定方向扇形区域发射【参数1】颗散弹，每个散弹会对命中的敌人造成【参数2】点伤害，并击退所有命中的敌人1格距离</t>
+  </si>
+  <si>
+    <t>2号英雄-普攻</t>
+  </si>
+  <si>
+    <t>向指定方向发射【参数1】颗子弹，每个散弹会对命中的敌人造成【参数2】点伤害，可移动射击</t>
+  </si>
+  <si>
+    <t>2号英雄-大招</t>
+  </si>
+  <si>
+    <t>向指定方向发射【参数1】颗子弹，每个散弹会对命中的敌人造成【参数2】点伤害，可移动射击，子弹会穿透敌人对后面的敌人继续造成等量伤害</t>
+  </si>
+  <si>
+    <t>3号英雄-普攻</t>
+  </si>
+  <si>
+    <t>A|a=360|r=1</t>
+  </si>
+  <si>
+    <t>向指定方向发射1颗导弹，会对命中的目标及其周围敌人造成【参数1】点伤害</t>
+  </si>
+  <si>
+    <t>3号英雄-大招</t>
+  </si>
+  <si>
+    <t>A|a=360|r=1</t>
+  </si>
+  <si>
+    <t>向指定区域投放8颗炸弹，每颗炸弹都会对范围内的敌人造成【参数1】点伤害，导弹会在【参数2】秒内到达目的地（导弹降落的位置都是固定的，所以作用范围参数是导弹自身的爆炸区域，而不是导弹的覆盖区域）</t>
+  </si>
+  <si>
+    <t>4号英雄-普攻</t>
+  </si>
+  <si>
+    <t>向指定方向发射1颗弹射弹，对碰到的敌人造成【参数1】点伤害，同时子弹会进行弹射，会对弹射到的目标再次造成伤害，最多弹射【参数2】次，弹射最大距离【参数3】格</t>
+  </si>
+  <si>
+    <t>4号英雄-大招</t>
+  </si>
+  <si>
+    <t>向指定位置召唤一个机枪炮塔【参数1为召唤物ID】，当再次召唤炮塔会使之前的炮塔消失</t>
+  </si>
+  <si>
+    <t>7号英雄-普攻</t>
+  </si>
+  <si>
+    <t>B|[1,3]</t>
+  </si>
+  <si>
+    <t>向指定方向攻击【参数2】次，每次都会对范围内的所有敌人造成【参数1】点伤害，可以移动攻击</t>
+  </si>
+  <si>
+    <t>7号英雄-大招</t>
+  </si>
+  <si>
+    <t>A|a=360|r=3</t>
+  </si>
+  <si>
+    <t>跳向指定位置，对区域内的所有敌人造成【参数1】点伤害，并击退他们【参数2】格距离</t>
+  </si>
+  <si>
+    <t>召唤物-炮塔-普攻</t>
+  </si>
+  <si>
+    <t>向指定方向发射子弹，每颗子弹会对敌人造成【参数1】点伤害</t>
+  </si>
+  <si>
+    <t>召唤物-狗熊-普攻</t>
+  </si>
+  <si>
+    <t>对目标造成【参数1】点伤害</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>礼包ID</t>
+  </si>
+  <si>
+    <t>奖励道具</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>BonusProps</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>1002=1</t>
+  </si>
+  <si>
+    <t>1002=5</t>
+  </si>
+  <si>
+    <t>1005=1</t>
+  </si>
+  <si>
+    <t>1006=1</t>
+  </si>
+  <si>
+    <t>1007=1</t>
+  </si>
+  <si>
+    <t>1008=1</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>匹配时间下限</t>
+  </si>
+  <si>
+    <t>战斗力差值上限</t>
+  </si>
+  <si>
+    <t>是否匹配AI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TimeFloor</t>
+  </si>
+  <si>
+    <t>FightLimit</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>y轴格子</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
-  </si>
-  <si>
-    <t>X29</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>元素ID</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>美术资源</t>
-  </si>
-  <si>
-    <t>是否阻挡</t>
-  </si>
-  <si>
-    <t>是否可被普攻摧毁</t>
-  </si>
-  <si>
-    <t>是否可被大招摧毁</t>
-  </si>
-  <si>
-    <t>恢复时间</t>
-  </si>
-  <si>
-    <t>能否隐身</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ArtResource</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Destroy1</t>
-  </si>
-  <si>
-    <t>Destroy2</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Invisible</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>空气墙</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>土墙</t>
-  </si>
-  <si>
-    <t>金刚石</t>
-  </si>
-  <si>
-    <t>水晶井</t>
-  </si>
-  <si>
-    <t>罐子</t>
-  </si>
-  <si>
-    <t>箱子</t>
-  </si>
-  <si>
-    <t>木桶</t>
-  </si>
-  <si>
-    <t>战斗玩法</t>
-  </si>
-  <si>
-    <t>每队人数或混战总人数</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>Playing</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Para1</t>
-  </si>
-  <si>
-    <t>Para2</t>
-  </si>
-  <si>
-    <t>Para3</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>击杀模式</t>
-  </si>
-  <si>
-    <t>击杀对方可获得对方头顶上所有星星（队伍累计的星星数量不会减少），【参数1】时间后，得到星星总数多的队伍胜利</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>抢夺水晶</t>
-  </si>
-  <si>
-    <t>有限获得【参数1】数量水晶，并坚持【参数2】时间的队伍获胜</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>大逃杀混战</t>
-  </si>
-  <si>
-    <t>【参数1】时间后毒圈逐步缩小，半径缩小速度【参数2】米每秒，按死亡时间排名结算。</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>英雄名</t>
-  </si>
-  <si>
-    <t>模型ID</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>升级生命值增量</t>
-  </si>
-  <si>
-    <t>普攻ID</t>
-  </si>
-  <si>
-    <t>技能ID</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>射击点数</t>
-  </si>
-  <si>
-    <t>恢复时间</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Modle</t>
-  </si>
-  <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Hpincre</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Shoot</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>炮塔</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>杯数</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>奖励</t>
-  </si>
-  <si>
-    <t>RankLevel</t>
-  </si>
-  <si>
-    <t>Cups</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Reward1</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>list_int</t>
-  </si>
-  <si>
-    <t>英雄总杯数达到多少，到2级</t>
-  </si>
-  <si>
-    <t>掉杯不减等级</t>
-  </si>
-  <si>
-    <t>道具ID</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>转化碎片数量</t>
-  </si>
-  <si>
-    <t>兑换所需碎片数</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>介绍</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>HeroShard</t>
-  </si>
-  <si>
-    <t>NeedShardNum</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>魔法药水</t>
-  </si>
-  <si>
-    <t>英雄碎片</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>英雄1</t>
-  </si>
-  <si>
-    <t>英雄2</t>
-  </si>
-  <si>
-    <t>英雄3</t>
-  </si>
-  <si>
-    <t>英雄4</t>
-  </si>
-  <si>
-    <t>英雄5</t>
-  </si>
-  <si>
-    <t>技能ID</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能标签</t>
-  </si>
-  <si>
-    <t>射程</t>
-  </si>
-  <si>
-    <t>作用范围</t>
-  </si>
-  <si>
-    <t>弹道速度</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>技能效果描述</t>
-  </si>
-  <si>
-    <t>技能数值描述</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>SkillRange</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Para1</t>
-  </si>
-  <si>
-    <t>Para2</t>
-  </si>
-  <si>
-    <t>Para3</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>1号英雄-普攻</t>
-  </si>
-  <si>
-    <t>A|a=40</t>
-  </si>
-  <si>
-    <t>向指定方向扇形区域发射【参数1】颗散弹，每个散弹会对命中的敌人造成【参数2】点伤害</t>
-  </si>
-  <si>
-    <t>1号英雄-大招</t>
-  </si>
-  <si>
-    <t>A|a=60</t>
-  </si>
-  <si>
-    <t>向指定方向扇形区域发射【参数1】颗散弹，每个散弹会对命中的敌人造成【参数2】点伤害，并击退所有命中的敌人1格距离</t>
-  </si>
-  <si>
-    <t>2号英雄-普攻</t>
-  </si>
-  <si>
-    <t>向指定方向发射【参数1】颗子弹，每个散弹会对命中的敌人造成【参数2】点伤害，可移动射击</t>
-  </si>
-  <si>
-    <t>2号英雄-大招</t>
-  </si>
-  <si>
-    <t>向指定方向发射【参数1】颗子弹，每个散弹会对命中的敌人造成【参数2】点伤害，可移动射击，子弹会穿透敌人对后面的敌人继续造成等量伤害</t>
-  </si>
-  <si>
-    <t>3号英雄-普攻</t>
-  </si>
-  <si>
-    <t>A|a=360|r=1</t>
-  </si>
-  <si>
-    <t>向指定方向发射1颗导弹，会对命中的目标及其周围敌人造成【参数1】点伤害</t>
-  </si>
-  <si>
-    <t>3号英雄-大招</t>
-  </si>
-  <si>
-    <t>A|a=360|r=1</t>
-  </si>
-  <si>
-    <t>向指定区域投放8颗炸弹，每颗炸弹都会对范围内的敌人造成【参数1】点伤害，导弹会在【参数2】秒内到达目的地（导弹降落的位置都是固定的，所以作用范围参数是导弹自身的爆炸区域，而不是导弹的覆盖区域）</t>
-  </si>
-  <si>
-    <t>4号英雄-普攻</t>
-  </si>
-  <si>
-    <t>向指定方向发射1颗弹射弹，对碰到的敌人造成【参数1】点伤害，同时子弹会进行弹射，会对弹射到的目标再次造成伤害，最多弹射【参数2】次，弹射最大距离【参数3】格</t>
-  </si>
-  <si>
-    <t>4号英雄-大招</t>
-  </si>
-  <si>
-    <t>向指定位置召唤一个机枪炮塔【参数1为召唤物ID】，当再次召唤炮塔会使之前的炮塔消失</t>
-  </si>
-  <si>
-    <t>7号英雄-普攻</t>
-  </si>
-  <si>
-    <t>B|[1,3]</t>
-  </si>
-  <si>
-    <t>向指定方向攻击【参数2】次，每次都会对范围内的所有敌人造成【参数1】点伤害，可以移动攻击</t>
-  </si>
-  <si>
-    <t>7号英雄-大招</t>
-  </si>
-  <si>
-    <t>A|a=360|r=3</t>
-  </si>
-  <si>
-    <t>跳向指定位置，对区域内的所有敌人造成【参数1】点伤害，并击退他们【参数2】格距离</t>
-  </si>
-  <si>
-    <t>召唤物-炮塔-普攻</t>
-  </si>
-  <si>
-    <t>向指定方向发射子弹，每颗子弹会对敌人造成【参数1】点伤害</t>
-  </si>
-  <si>
-    <t>召唤物-狗熊-普攻</t>
-  </si>
-  <si>
-    <t>对目标造成【参数1】点伤害</t>
-  </si>
-  <si>
-    <t>礼包ID</t>
-  </si>
-  <si>
-    <t>奖励道具</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>BonusProps</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>1002=1</t>
-  </si>
-  <si>
-    <t>1002=5</t>
-  </si>
-  <si>
-    <t>1005=1</t>
-  </si>
-  <si>
-    <t>1006=1</t>
-  </si>
-  <si>
-    <t>1007=1</t>
-  </si>
-  <si>
-    <t>1008=1</t>
-  </si>
-  <si>
-    <t>匹配时间下限</t>
-  </si>
-  <si>
-    <t>战斗力差值上限</t>
-  </si>
-  <si>
-    <t>是否匹配AI</t>
-  </si>
-  <si>
-    <t>TimeFloor</t>
-  </si>
-  <si>
-    <t>FightLimit</t>
-  </si>
-  <si>
-    <t>AI</t>
   </si>
   <si>
     <t>int</t>
@@ -1449,37 +1470,37 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1494,32 +1515,32 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
@@ -1535,34 +1556,34 @@
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -1581,7 +1602,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1590,7 +1611,7 @@
         <v>7.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F4" s="2">
         <v>3.0</v>
@@ -1604,7 +1625,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1622,7 +1643,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C5" s="2">
         <v>2.0</v>
@@ -1631,7 +1652,7 @@
         <v>7.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F5" s="2">
         <v>3.0</v>
@@ -1645,7 +1666,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1663,7 +1684,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1684,7 +1705,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1702,7 +1723,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2">
         <v>2.0</v>
@@ -1723,7 +1744,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1741,7 +1762,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1750,7 +1771,7 @@
         <v>15.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F8" s="2">
         <v>3.0</v>
@@ -1762,7 +1783,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1780,7 +1801,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2">
         <v>2.0</v>
@@ -1789,7 +1810,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1801,7 +1822,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1819,7 +1840,7 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1842,7 +1863,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1860,7 +1881,7 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C11" s="2">
         <v>2.0</v>
@@ -1877,7 +1898,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1895,14 +1916,14 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1914,7 +1935,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1932,7 +1953,7 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C13" s="2">
         <v>2.0</v>
@@ -1941,7 +1962,7 @@
         <v>7.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1953,7 +1974,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1971,7 +1992,7 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -1990,7 +2011,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2008,7 +2029,7 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2025,7 +2046,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6304,105 +6325,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0.0"/>
   <cols>
-    <col min="1" max="23" width="15.14"/>
+    <col min="1" max="24" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="1">
         <v>100.0</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="1">
         <v>10.0</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="1">
         <v>20.0</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1">
         <v>20.0</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="1">
         <v>10.0</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -6417,138 +6465,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0.0"/>
   <cols>
-    <col min="1" max="22" width="15.14"/>
+    <col min="1" max="23" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>10.0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="1">
         <v>5.0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>20.0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="1">
         <v>10.0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>40.0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1">
         <v>15.0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>60.0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="1">
         <v>20.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>80.0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="1">
         <v>25.0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>100.0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="1">
         <v>30.0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1000.0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="16.5">
       <c r="A11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="1">
         <v>35.0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>10000.0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="16.5">
       <c r="A12" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="1">
         <v>40.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>0.0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -6654,7 +6738,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0.0"/>
   <cols>
-    <col min="1" max="22" width="15.14"/>
+    <col min="1" max="23" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
@@ -6673,69 +6757,84 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
+      <c r="A4" s="1">
+        <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>101.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
+      <c r="A5" s="1">
+        <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>102.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6858,7 +6957,7 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -6971,228 +7070,228 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -10321,7 +10420,7 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -10434,228 +10533,228 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -11775,76 +11874,76 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -11852,7 +11951,7 @@
         <v>0.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -11876,7 +11975,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -11900,7 +11999,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -11924,7 +12023,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -11948,7 +12047,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -11964,7 +12063,7 @@
         <v>11.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -11988,7 +12087,7 @@
         <v>12.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -12012,7 +12111,7 @@
         <v>13.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1">
         <v>1.0</v>
@@ -12048,64 +12147,64 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>240</v>
+      <c r="A4" s="1">
+        <v>101.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>241</v>
@@ -12123,11 +12222,11 @@
       </c>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C5" s="1">
         <v>3.0</v>
@@ -12140,15 +12239,15 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C6" s="1">
         <v>10.0</v>
@@ -12159,7 +12258,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -12178,107 +12277,107 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -12288,8 +12387,12 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40.0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -12303,8 +12406,12 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30.0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -12318,8 +12425,12 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30.0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -12333,8 +12444,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40.0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -12348,8 +12463,12 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30.0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -12361,7 +12480,7 @@
         <v>99.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12376,6 +12495,24 @@
       <c r="J9" s="1">
         <v>-1.0</v>
       </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -12388,38 +12525,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0.0"/>
   <cols>
-    <col min="1" max="22" width="15.14"/>
+    <col min="1" max="23" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
@@ -12434,31 +12577,40 @@
       <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="1">
         <v>1.0</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>1.0</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="1">
         <v>2.0</v>
       </c>
       <c r="B5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>10.0</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>296</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6" ht="16.5">
@@ -12466,39 +12618,51 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1">
         <v>20.0</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="1">
         <v>4.0</v>
       </c>
       <c r="B7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="1">
         <v>30.0</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="1">
         <v>5.0</v>
       </c>
       <c r="B8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="1">
         <v>40.0</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1">
         <v>6.0</v>
       </c>
       <c r="B9" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="1">
         <v>60.0</v>
       </c>
     </row>
@@ -12507,6 +12671,9 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="1">
         <v>80.0</v>
       </c>
     </row>
@@ -12515,6 +12682,9 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C11" s="1">
         <v>100.0</v>
       </c>
     </row>
@@ -12523,6 +12693,9 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C12" s="1">
         <v>120.0</v>
       </c>
     </row>
@@ -12531,6 +12704,9 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C13" s="1">
         <v>140.0</v>
       </c>
     </row>
@@ -12539,6 +12715,9 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C14" s="1">
         <v>160.0</v>
       </c>
     </row>
@@ -12547,6 +12726,9 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="C15" s="1">
         <v>180.0</v>
       </c>
     </row>
@@ -12555,6 +12737,9 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C16" s="1">
         <v>220.0</v>
       </c>
     </row>
@@ -12563,6 +12748,9 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C17" s="1">
         <v>260.0</v>
       </c>
     </row>
@@ -12571,6 +12759,9 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C18" s="1">
         <v>300.0</v>
       </c>
     </row>
@@ -12579,6 +12770,9 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C19" s="1">
         <v>340.0</v>
       </c>
     </row>
@@ -12587,6 +12781,9 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C20" s="1">
         <v>380.0</v>
       </c>
     </row>
@@ -12595,6 +12792,9 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C21" s="1">
         <v>420.0</v>
       </c>
     </row>
@@ -12603,15 +12803,21 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C22" s="1">
         <v>460.0</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="1">
         <v>20.0</v>
       </c>
       <c r="B23" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C23" s="1">
         <v>500.0</v>
       </c>
     </row>
@@ -12632,62 +12838,62 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -12695,7 +12901,7 @@
         <v>1001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12705,7 +12911,7 @@
         <v>1002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12715,7 +12921,7 @@
         <v>1003.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12725,7 +12931,7 @@
         <v>1004.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12735,7 +12941,7 @@
         <v>1005.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1">
         <v>1.0</v>
@@ -12749,7 +12955,7 @@
         <v>1006.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
@@ -12763,7 +12969,7 @@
         <v>1007.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -12777,7 +12983,7 @@
         <v>1008.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1">
         <v>20.0</v>
@@ -12791,7 +12997,7 @@
         <v>1009.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C12" s="1">
         <v>200.0</v>

--- a/data/excel_files/【坦克竞技】数据表.xlsx
+++ b/data/excel_files/【坦克竞技】数据表.xlsx
@@ -635,6 +635,9 @@
     <t>美术资源</t>
   </si>
   <si>
+    <t>摧毁状态</t>
+  </si>
+  <si>
     <t>是否阻挡</t>
   </si>
   <si>
@@ -653,7 +656,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ArtResource</t>
+    <t>ArtResource1</t>
+  </si>
+  <si>
+    <t>ArtResource2</t>
   </si>
   <si>
     <t>Stop</t>
@@ -674,6 +680,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -689,31 +701,67 @@
     <t>int</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>空气墙</t>
-  </si>
-  <si>
     <t>草</t>
   </si>
   <si>
+    <t>cao</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>土墙</t>
   </si>
   <si>
+    <t>nitukuai</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>金刚石</t>
   </si>
   <si>
+    <t>kuangshi</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>水晶井</t>
   </si>
   <si>
+    <t>mukuai</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>罐子</t>
   </si>
   <si>
+    <t>muxiang</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>箱子</t>
   </si>
   <si>
+    <t>muxiang</t>
+  </si>
+  <si>
+    <t>feixu</t>
+  </si>
+  <si>
     <t>木桶</t>
+  </si>
+  <si>
+    <t>mutong</t>
+  </si>
+  <si>
+    <t>feixu</t>
   </si>
   <si>
     <t>战斗玩法</t>
@@ -1470,37 +1518,37 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1515,32 +1563,32 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
@@ -1556,34 +1604,34 @@
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -1602,7 +1650,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1611,7 +1659,7 @@
         <v>7.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="F4" s="2">
         <v>3.0</v>
@@ -1625,7 +1673,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1643,7 +1691,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2">
         <v>2.0</v>
@@ -1652,7 +1700,7 @@
         <v>7.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F5" s="2">
         <v>3.0</v>
@@ -1666,7 +1714,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1684,7 +1732,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1705,7 +1753,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1723,7 +1771,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C7" s="2">
         <v>2.0</v>
@@ -1744,7 +1792,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1762,7 +1810,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1771,7 +1819,7 @@
         <v>15.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F8" s="2">
         <v>3.0</v>
@@ -1783,7 +1831,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1801,7 +1849,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C9" s="2">
         <v>2.0</v>
@@ -1810,7 +1858,7 @@
         <v>7.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1822,7 +1870,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1840,7 +1888,7 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1863,7 +1911,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1881,7 +1929,7 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C11" s="2">
         <v>2.0</v>
@@ -1898,7 +1946,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1916,14 +1964,14 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1935,7 +1983,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1953,7 +2001,7 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C13" s="2">
         <v>2.0</v>
@@ -1962,7 +2010,7 @@
         <v>7.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1974,7 +2022,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1992,7 +2040,7 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -2011,7 +2059,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2029,7 +2077,7 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2046,7 +2094,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6330,44 +6378,44 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -6378,7 +6426,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D4" s="1">
         <v>100.0</v>
@@ -6392,7 +6440,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D5" s="1">
         <v>10.0</v>
@@ -6406,7 +6454,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="D6" s="1">
         <v>20.0</v>
@@ -6420,7 +6468,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1">
         <v>20.0</v>
@@ -6434,7 +6482,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D8" s="1">
         <v>10.0</v>
@@ -6448,7 +6496,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="D9" s="1">
         <v>5.0</v>
@@ -6470,44 +6518,44 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -11869,7 +11917,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="0.0"/>
   <cols>
-    <col min="1" max="22" width="15.14"/>
+    <col min="1" max="23" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
@@ -11897,65 +11945,76 @@
       <c r="H1" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>1.0</v>
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -11964,70 +12023,85 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+        <v>224</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1.0</v>
+        <v>227</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
       <c r="G6" s="1">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.0</v>
       </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" ht="16.5">
       <c r="A7" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>1.0</v>
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
@@ -12041,33 +12115,51 @@
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="1">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.0</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1.0</v>
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="E9" s="1">
         <v>1.0</v>
@@ -12076,56 +12168,41 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="1">
         <v>0.0</v>
       </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>1.0</v>
+        <v>239</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="E10" s="1">
         <v>1.0</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="1">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="I10" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12147,58 +12224,58 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -12207,7 +12284,7 @@
         <v>101.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1">
         <v>3.0</v>
@@ -12218,7 +12295,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" ht="16.5">
@@ -12226,7 +12303,7 @@
         <v>102.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1">
         <v>3.0</v>
@@ -12239,7 +12316,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" ht="16.5">
@@ -12247,7 +12324,7 @@
         <v>103.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1">
         <v>10.0</v>
@@ -12258,7 +12335,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -12277,107 +12354,107 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -12480,7 +12557,7 @@
         <v>99.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12530,55 +12607,55 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -12607,10 +12684,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" ht="16.5">
@@ -12838,62 +12915,62 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" ht="16.5">
@@ -12901,7 +12978,7 @@
         <v>1001.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12911,7 +12988,7 @@
         <v>1002.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12921,7 +12998,7 @@
         <v>1003.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12931,7 +13008,7 @@
         <v>1004.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12941,7 +13018,7 @@
         <v>1005.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C8" s="1">
         <v>1.0</v>
@@ -12955,7 +13032,7 @@
         <v>1006.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
@@ -12969,7 +13046,7 @@
         <v>1007.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -12983,7 +13060,7 @@
         <v>1008.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C11" s="1">
         <v>20.0</v>
@@ -12997,7 +13074,7 @@
         <v>1009.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1">
         <v>200.0</v>
